--- a/SEO_Autobot.xlsx
+++ b/SEO_Autobot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT0383\Desktop\DX\SEO_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0119CC-D392-439E-AD15-7CF0F7B8933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0744AF58-D0B0-4438-931D-E7778D2FD17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -387,12 +385,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -407,7 +405,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/SEO_Autobot.xlsx
+++ b/SEO_Autobot.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT0383\Desktop\DX\SEO_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0744AF58-D0B0-4438-931D-E7778D2FD17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B81E20-CB91-473C-8203-EA9EDC50B832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master!$C$6:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,32 +28,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+  <si>
+    <t>リクナビネクスト</t>
+  </si>
+  <si>
+    <t>リクナビnext</t>
+  </si>
+  <si>
+    <t>りくなび</t>
+  </si>
+  <si>
+    <t>リクナビ</t>
+  </si>
+  <si>
+    <t>rikunabi</t>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yahoo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.E.O Autobot</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>Target_keyword</t>
+  </si>
+  <si>
+    <t>ON</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクナビネクスト</t>
-  </si>
-  <si>
-    <t>リクナビnext</t>
-  </si>
-  <si>
-    <t>りくなび</t>
-  </si>
-  <si>
-    <t>リクナビ</t>
-  </si>
-  <si>
-    <t>rikunabi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +91,76 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF0070C0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03A107"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -83,18 +168,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03A107"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -369,64 +632,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="10" max="11" width="9" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="2" spans="3:8" ht="18.75" customHeight="1">
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="3:8" ht="18.75" customHeight="1">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="3:8" ht="19.5" thickBot="1"/>
+    <row r="6" spans="3:8">
+      <c r="C6" s="2"/>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="3:8" ht="19.5" thickBot="1">
+      <c r="C12" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C2:G4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BCD8DC-9FF4-4035-9DD9-4CFD7661007E}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:G12" xr:uid="{689F6CAF-B6FC-4622-9AA8-9925339972E4}">
+      <formula1>"ON"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
